--- a/Project/Data/Water/Cantons/TI/TI 2011.xlsx
+++ b/Project/Data/Water/Cantons/TI/TI 2011.xlsx
@@ -21,32 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
-  <si>
-    <t>mation</t>
-  </si>
-  <si>
-    <t>pompes)</t>
-  </si>
-  <si>
-    <t>Hiver</t>
-  </si>
-  <si>
-    <t>Eté</t>
-  </si>
-  <si>
-    <t>Année</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>(m3/s)</t>
   </si>
   <si>
-    <t>(MW)</t>
-  </si>
-  <si>
-    <t>(GWh)</t>
-  </si>
-  <si>
     <t>Valmara</t>
   </si>
   <si>
@@ -138,6 +117,36 @@
   </si>
   <si>
     <t>Cerentino</t>
+  </si>
+  <si>
+    <t>idx</t>
+  </si>
+  <si>
+    <t>idx2</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date Start</t>
+  </si>
+  <si>
+    <t>Date End</t>
+  </si>
+  <si>
+    <t>(MW1)</t>
+  </si>
+  <si>
+    <t>(MW2)</t>
+  </si>
+  <si>
+    <t>(GWh) Winter</t>
+  </si>
+  <si>
+    <t>(GWh) Summer</t>
+  </si>
+  <si>
+    <t>(GWh) Year</t>
   </si>
 </sst>
 </file>
@@ -194,11 +203,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -534,1103 +544,1106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="A25" sqref="A25:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="E1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
+      <c r="B2" s="2">
+        <v>603300</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1890</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1999</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3.18</v>
+      </c>
+      <c r="K2" s="3">
+        <v>5.65</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>603300</v>
+        <v>602100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>1890</v>
+        <v>1903</v>
       </c>
       <c r="E3" s="2">
-        <v>1999</v>
+        <v>1970</v>
       </c>
       <c r="F3" s="3">
-        <v>0.45</v>
+        <v>5</v>
       </c>
       <c r="G3" s="3">
-        <v>0.95</v>
+        <v>15.5</v>
       </c>
       <c r="H3" s="3">
-        <v>0.95</v>
+        <v>15</v>
       </c>
       <c r="I3" s="3">
-        <v>2.4700000000000002</v>
+        <v>14.7</v>
       </c>
       <c r="J3" s="3">
-        <v>3.18</v>
+        <v>27.7</v>
       </c>
       <c r="K3" s="3">
-        <v>5.65</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>602100</v>
+        <v>603100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="E4" s="2">
-        <v>1970</v>
+        <v>1958</v>
       </c>
       <c r="F4" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3">
-        <v>15.5</v>
+        <v>3.1</v>
       </c>
       <c r="H4" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I4" s="3">
-        <v>14.7</v>
+        <v>5.4</v>
       </c>
       <c r="J4" s="3">
-        <v>27.7</v>
+        <v>8</v>
       </c>
       <c r="K4" s="3">
-        <v>42.4</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>603100</v>
+        <v>600900</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="E5" s="2">
-        <v>1958</v>
+        <v>1998</v>
       </c>
       <c r="F5" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G5" s="3">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H5" s="3">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I5" s="3">
-        <v>5.4</v>
+        <v>2.5</v>
       </c>
       <c r="J5" s="3">
         <v>8</v>
       </c>
       <c r="K5" s="3">
-        <v>13.4</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>600900</v>
+        <v>600400</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>1907</v>
+        <v>1920</v>
       </c>
       <c r="E6" s="2">
-        <v>1998</v>
+        <v>1958</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="G6" s="3">
-        <v>2.9</v>
+        <v>23.76</v>
       </c>
       <c r="H6" s="3">
-        <v>2.8</v>
+        <v>23.76</v>
       </c>
       <c r="I6" s="3">
-        <v>2.5</v>
+        <v>45.36</v>
       </c>
       <c r="J6" s="3">
-        <v>8</v>
+        <v>38.340000000000003</v>
       </c>
       <c r="K6" s="3">
-        <v>10.5</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>600300</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1922</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1988</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="I7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>600400</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1920</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1958</v>
-      </c>
-      <c r="F7" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="G7" s="3">
-        <v>23.76</v>
-      </c>
-      <c r="H7" s="3">
-        <v>23.76</v>
-      </c>
-      <c r="I7" s="3">
-        <v>45.36</v>
-      </c>
       <c r="J7" s="3">
-        <v>38.340000000000003</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K7" s="3">
-        <v>83.7</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>600300</v>
+        <v>600600</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>1922</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1988</v>
+        <v>1925</v>
       </c>
       <c r="F8" s="3">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="G8" s="3">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="I8" s="3">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="J8" s="3">
-        <v>8.6999999999999993</v>
+        <v>1.2</v>
       </c>
       <c r="K8" s="3">
-        <v>13.7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>603200</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1926</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1991</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="I9" s="3">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>600600</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1925</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="G9" s="3">
-        <v>10</v>
-      </c>
-      <c r="H9" s="3">
-        <v>10</v>
-      </c>
-      <c r="I9" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1.2</v>
-      </c>
       <c r="K9" s="3">
-        <v>6.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>603200</v>
+        <v>600800</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>1926</v>
+        <v>1932</v>
       </c>
       <c r="E10" s="2">
-        <v>1991</v>
+        <v>1958</v>
       </c>
       <c r="F10" s="3">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G10" s="3">
-        <v>5</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="H10" s="3">
-        <v>3.6</v>
+        <v>60</v>
       </c>
       <c r="I10" s="3">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="J10" s="3">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="K10" s="3">
-        <v>15</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>600800</v>
+        <v>600100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
-        <v>1932</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1958</v>
+        <v>1947</v>
       </c>
       <c r="F11" s="3">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G11" s="3">
-        <v>72.900000000000006</v>
+        <v>27</v>
       </c>
       <c r="H11" s="3">
-        <v>60</v>
+        <v>26.1</v>
       </c>
       <c r="I11" s="3">
-        <v>128</v>
+        <v>31.37</v>
       </c>
       <c r="J11" s="3">
-        <v>172</v>
+        <v>14.67</v>
       </c>
       <c r="K11" s="3">
-        <v>300</v>
+        <v>46.04</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>600100</v>
+        <v>600200</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2">
         <v>1947</v>
       </c>
       <c r="F12" s="3">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="G12" s="3">
-        <v>27</v>
+        <v>0.44</v>
       </c>
       <c r="H12" s="3">
-        <v>26.1</v>
+        <v>0.5</v>
       </c>
       <c r="I12" s="3">
-        <v>31.37</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J12" s="3">
-        <v>14.67</v>
+        <v>0.72</v>
       </c>
       <c r="K12" s="3">
-        <v>46.04</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>600200</v>
+        <v>600700</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
-        <v>1947</v>
+        <v>1950</v>
       </c>
       <c r="F13" s="3">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="G13" s="3">
-        <v>0.44</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="I13" s="3">
-        <v>0.14000000000000001</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J13" s="3">
-        <v>0.72</v>
+        <v>6.5</v>
       </c>
       <c r="K13" s="3">
-        <v>0.86</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>600700</v>
+        <v>602800</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="F14" s="3">
-        <v>0.3</v>
+        <v>44</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="H14" s="3">
-        <v>1.8</v>
+        <v>96</v>
       </c>
       <c r="I14" s="3">
-        <v>4.4000000000000004</v>
+        <v>148.69999999999999</v>
       </c>
       <c r="J14" s="3">
-        <v>6.5</v>
+        <v>197.6</v>
       </c>
       <c r="K14" s="3">
-        <v>10.9</v>
+        <v>346.3</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>602800</v>
+        <v>602700</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="F15" s="3">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G15" s="3">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H15" s="3">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="I15" s="3">
-        <v>148.69999999999999</v>
+        <v>200.8</v>
       </c>
       <c r="J15" s="3">
-        <v>197.6</v>
+        <v>196.9</v>
       </c>
       <c r="K15" s="3">
-        <v>346.3</v>
+        <v>397.7</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>602700</v>
+        <v>602400</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2">
         <v>1955</v>
       </c>
       <c r="F16" s="3">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="G16" s="3">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="H16" s="3">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="I16" s="3">
-        <v>200.8</v>
+        <v>60.5</v>
       </c>
       <c r="J16" s="3">
-        <v>196.9</v>
+        <v>24.9</v>
       </c>
       <c r="K16" s="3">
-        <v>397.7</v>
+        <v>85.4</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>602400</v>
+        <v>601300</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2">
-        <v>1955</v>
+        <v>1959</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2007</v>
       </c>
       <c r="F17" s="3">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="G17" s="3">
-        <v>54</v>
+        <v>324</v>
       </c>
       <c r="H17" s="3">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="I17" s="3">
-        <v>60.5</v>
+        <v>313</v>
       </c>
       <c r="J17" s="3">
-        <v>24.9</v>
+        <v>375</v>
       </c>
       <c r="K17" s="3">
-        <v>85.4</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="1:11">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>601200</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1962</v>
+      </c>
       <c r="F18" s="3">
-        <v>4.4000000000000004</v>
+        <v>20</v>
       </c>
       <c r="G18" s="3">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="H18" s="3">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="I18" s="3">
-        <v>1.5</v>
+        <v>140.30000000000001</v>
       </c>
       <c r="J18" s="3">
-        <v>10.5</v>
+        <v>69.8</v>
       </c>
       <c r="K18" s="3">
-        <v>12</v>
+        <v>210.1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>601300</v>
+        <v>601100</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2">
-        <v>1959</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2007</v>
+        <v>1963</v>
       </c>
       <c r="F19" s="3">
-        <v>55</v>
+        <v>11.6</v>
       </c>
       <c r="G19" s="3">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="H19" s="3">
-        <v>324</v>
+        <v>19</v>
       </c>
       <c r="I19" s="3">
-        <v>313</v>
+        <v>5.6</v>
       </c>
       <c r="J19" s="3">
-        <v>375</v>
+        <v>21.2</v>
       </c>
       <c r="K19" s="3">
-        <v>688</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>601200</v>
+        <v>602200</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="F20" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G20" s="3">
-        <v>102</v>
+        <v>132.5</v>
       </c>
       <c r="H20" s="3">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="I20" s="3">
-        <v>140.30000000000001</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>69.8</v>
+        <v>115</v>
       </c>
       <c r="K20" s="3">
-        <v>210.1</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>602600</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1966</v>
+      </c>
+      <c r="F21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="2">
-        <v>601100</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1963</v>
-      </c>
-      <c r="F21" s="3">
-        <v>11.6</v>
-      </c>
       <c r="G21" s="3">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="H21" s="3">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="I21" s="3">
-        <v>5.6</v>
+        <v>177.2</v>
       </c>
       <c r="J21" s="3">
-        <v>21.2</v>
+        <v>147.1</v>
       </c>
       <c r="K21" s="3">
-        <v>26.8</v>
+        <v>324.3</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>602200</v>
+        <v>601000</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2">
-        <v>1965</v>
+        <v>1966</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1974</v>
       </c>
       <c r="F22" s="3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G22" s="3">
-        <v>132.5</v>
+        <v>141</v>
       </c>
       <c r="H22" s="3">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="J22" s="3">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="K22" s="3">
-        <v>215</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>602600</v>
+        <v>603000</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="F23" s="3">
-        <v>18</v>
+        <v>2.8</v>
       </c>
       <c r="G23" s="3">
-        <v>140</v>
+        <v>8.94</v>
       </c>
       <c r="H23" s="3">
-        <v>124</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I23" s="3">
-        <v>177.2</v>
+        <v>9</v>
       </c>
       <c r="J23" s="3">
-        <v>147.1</v>
+        <v>16.3</v>
       </c>
       <c r="K23" s="3">
-        <v>324.3</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>601000</v>
+        <v>602500</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2">
-        <v>1966</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1974</v>
+        <v>1968</v>
       </c>
       <c r="F24" s="3">
-        <v>54</v>
+        <v>46.3</v>
       </c>
       <c r="G24" s="3">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="H24" s="3">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="I24" s="3">
-        <v>142</v>
-      </c>
-      <c r="J24" s="3">
-        <v>240</v>
+        <v>37.4</v>
       </c>
       <c r="K24" s="3">
-        <v>382</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>600500</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1968</v>
+      </c>
+      <c r="F25" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="G25" s="3">
+        <v>14</v>
+      </c>
+      <c r="H25" s="3">
+        <v>13</v>
+      </c>
+      <c r="I25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="2">
-        <v>603000</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1967</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="G25" s="3">
-        <v>8.94</v>
-      </c>
-      <c r="H25" s="3">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I25" s="3">
-        <v>9</v>
-      </c>
       <c r="J25" s="3">
-        <v>16.3</v>
+        <v>33</v>
       </c>
       <c r="K25" s="3">
-        <v>25.3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>602500</v>
+        <v>602300</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="F26" s="3">
-        <v>46.3</v>
+        <v>2</v>
       </c>
       <c r="G26" s="3">
-        <v>173</v>
+        <v>4.25</v>
       </c>
       <c r="H26" s="3">
-        <v>168</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I26" s="3">
-        <v>37.4</v>
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>7</v>
       </c>
       <c r="K26" s="3">
-        <v>37.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:11">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>602900</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1973</v>
+      </c>
       <c r="F27" s="3">
-        <v>36.4</v>
+        <v>25</v>
       </c>
       <c r="G27" s="3">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="H27" s="3">
-        <v>150</v>
+        <v>50</v>
+      </c>
+      <c r="I27" s="3">
+        <v>68</v>
       </c>
       <c r="J27" s="3">
-        <v>24</v>
+        <v>92.4</v>
       </c>
       <c r="K27" s="3">
-        <v>24</v>
+        <v>160.4</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>600500</v>
+        <v>602450</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>1968</v>
+        <v>1991</v>
       </c>
       <c r="F28" s="3">
-        <v>11.5</v>
+        <v>3.8</v>
       </c>
       <c r="G28" s="3">
-        <v>14</v>
+        <v>0.98</v>
       </c>
       <c r="H28" s="3">
-        <v>13</v>
+        <v>0.96</v>
       </c>
       <c r="I28" s="3">
-        <v>22</v>
+        <v>0.6</v>
       </c>
       <c r="J28" s="3">
-        <v>33</v>
+        <v>1.4</v>
       </c>
       <c r="K28" s="3">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>602300</v>
+        <v>600050</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
-        <v>1972</v>
+        <v>1991</v>
       </c>
       <c r="F29" s="3">
         <v>2</v>
       </c>
       <c r="G29" s="3">
-        <v>4.25</v>
+        <v>1.93</v>
       </c>
       <c r="H29" s="3">
-        <v>4.4000000000000004</v>
+        <v>1.85</v>
       </c>
       <c r="I29" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J29" s="3">
-        <v>7</v>
+        <v>0.9</v>
       </c>
       <c r="K29" s="3">
-        <v>12</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>602900</v>
+        <v>600750</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
-        <v>1973</v>
+        <v>2000</v>
       </c>
       <c r="F30" s="3">
-        <v>25</v>
+        <v>1.65</v>
       </c>
       <c r="G30" s="3">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="H30" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I30" s="3">
-        <v>68</v>
+        <v>1.22</v>
       </c>
       <c r="J30" s="3">
-        <v>92.4</v>
+        <v>3.88</v>
       </c>
       <c r="K30" s="3">
-        <v>160.4</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>602450</v>
+        <v>602950</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="F31" s="3">
-        <v>3.8</v>
+        <v>0.86</v>
       </c>
       <c r="G31" s="3">
-        <v>0.98</v>
+        <v>1.28</v>
       </c>
       <c r="H31" s="3">
-        <v>0.96</v>
+        <v>1.22</v>
       </c>
       <c r="I31" s="3">
-        <v>0.6</v>
+        <v>1.92</v>
       </c>
       <c r="J31" s="3">
-        <v>1.4</v>
+        <v>5.18</v>
       </c>
       <c r="K31" s="3">
-        <v>2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>600050</v>
+        <v>602975</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
-        <v>1991</v>
+        <v>2004</v>
       </c>
       <c r="F32" s="3">
-        <v>2</v>
+        <v>0.65</v>
       </c>
       <c r="G32" s="3">
-        <v>1.93</v>
+        <v>1.38</v>
       </c>
       <c r="H32" s="3">
-        <v>1.85</v>
+        <v>1.34</v>
       </c>
       <c r="I32" s="3">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="J32" s="3">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="K32" s="3">
-        <v>2.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="2">
-        <v>29</v>
-      </c>
-      <c r="B33" s="2">
-        <v>600750</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1.65</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1.22</v>
-      </c>
-      <c r="J33" s="3">
-        <v>3.88</v>
-      </c>
-      <c r="K33" s="3">
-        <v>5.0999999999999996</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="2">
-        <v>30</v>
-      </c>
-      <c r="B34" s="2">
-        <v>602950</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="2">
-        <v>2002</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0.86</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1.28</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1.22</v>
-      </c>
-      <c r="I34" s="3">
-        <v>1.92</v>
-      </c>
-      <c r="J34" s="3">
-        <v>5.18</v>
-      </c>
-      <c r="K34" s="3">
-        <v>7.1</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="2">
-        <v>31</v>
-      </c>
-      <c r="B35" s="2">
-        <v>602975</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="2">
-        <v>2004</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1.38</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1.34</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="J35" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="K35" s="3">
-        <v>7</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="2"/>
@@ -2411,45 +2424,6 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
